--- a/public/excel/course_sample.xlsx
+++ b/public/excel/course_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">編號</t>
   </si>
@@ -84,35 +84,162 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">列勿刪</t>
+    <t xml:space="preserve">第1列勿刪，狀態1表示開課成功，狀態2表示開課不成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">生活藝能課程 ○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">類</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">○○○○○○○○○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○○○</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○○</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00~15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">資訊安全課程 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">類</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○○</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00~16:00</t>
     </r>
   </si>
 </sst>
@@ -165,11 +292,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <name val="Noto Sans CJK TC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,7 +352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +362,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,13 +453,13 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
@@ -371,27 +500,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+    <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -401,8 +566,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -412,8 +577,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -423,8 +588,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -434,8 +599,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -445,8 +610,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -456,8 +621,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -467,8 +632,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -478,8 +643,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -489,8 +654,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -500,8 +665,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
@@ -511,8 +676,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
@@ -522,8 +687,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
@@ -533,8 +698,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
@@ -544,8 +709,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
@@ -555,8 +720,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
@@ -566,8 +731,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
@@ -577,8 +742,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
@@ -588,8 +753,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
@@ -599,8 +764,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
@@ -610,8 +775,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
@@ -621,8 +786,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
@@ -632,8 +797,8 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
@@ -643,8 +808,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
@@ -654,8 +819,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
@@ -665,8 +830,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
@@ -676,8 +841,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
@@ -687,8 +852,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
@@ -698,8 +863,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
@@ -709,8 +874,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
@@ -720,8 +885,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
